--- a/biology/Botanique/Ctenanthe/Ctenanthe.xlsx
+++ b/biology/Botanique/Ctenanthe/Ctenanthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenanthe est un genre de plantes monocotylédones de la famille des Marantaceae originaire d'Amérique du Sud. Il comprend environ 18 espèces de plantes herbacées vivaces. 
 Quelques espèces sont cultivées comme plantes d'ornement.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ctenanthe amabilis
 Ctenanthe amphiandina
